--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_WIN.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_WIN.xlsx
@@ -710,7 +710,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -731,7 +731,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -769,7 +769,7 @@
         <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1041,7 +1041,7 @@
         <v>133</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -1102,7 +1102,7 @@
         <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1121,7 +1121,7 @@
         <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -1201,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -1408,7 +1408,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -1448,7 +1448,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53">
@@ -1490,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1570,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="E58" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">

--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_WIN.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_WIN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
